--- a/אינדקס עסקים1.xlsx
+++ b/אינדקס עסקים1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14208" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14208" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="2"/>
@@ -512,6 +512,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -795,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -977,14 +978,14 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="180" thickBot="1">
+    <row r="4" spans="1:26" ht="152.4" thickBot="1">
       <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="8">
@@ -1348,23 +1349,23 @@
     <hyperlink ref="K3" r:id="rId5"/>
     <hyperlink ref="L3" r:id="rId6"/>
     <hyperlink ref="M3" r:id="rId7"/>
-    <hyperlink ref="C4" r:id="rId8" display="https://romanbr87.github.io/index/Img/Mr.Donuts.jpeg"/>
-    <hyperlink ref="K4" r:id="rId9"/>
-    <hyperlink ref="N4" r:id="rId10" display="mailto:mr.donuts.n@gmail.com"/>
-    <hyperlink ref="C5" r:id="rId11"/>
-    <hyperlink ref="K5" r:id="rId12"/>
-    <hyperlink ref="K6" r:id="rId13"/>
-    <hyperlink ref="L6" r:id="rId14"/>
-    <hyperlink ref="C7" r:id="rId15"/>
-    <hyperlink ref="K7" r:id="rId16"/>
-    <hyperlink ref="C8" r:id="rId17"/>
-    <hyperlink ref="M8" r:id="rId18"/>
-    <hyperlink ref="C9" r:id="rId19"/>
-    <hyperlink ref="K9" r:id="rId20"/>
-    <hyperlink ref="C10" r:id="rId21"/>
-    <hyperlink ref="K10" r:id="rId22"/>
-    <hyperlink ref="L10" r:id="rId23"/>
-    <hyperlink ref="N10" r:id="rId24" display="mailto:avitalprod@gmail.com"/>
+    <hyperlink ref="K4" r:id="rId8"/>
+    <hyperlink ref="N4" r:id="rId9" display="mailto:mr.donuts.n@gmail.com"/>
+    <hyperlink ref="C5" r:id="rId10"/>
+    <hyperlink ref="K5" r:id="rId11"/>
+    <hyperlink ref="K6" r:id="rId12"/>
+    <hyperlink ref="L6" r:id="rId13"/>
+    <hyperlink ref="C7" r:id="rId14"/>
+    <hyperlink ref="K7" r:id="rId15"/>
+    <hyperlink ref="C8" r:id="rId16"/>
+    <hyperlink ref="M8" r:id="rId17"/>
+    <hyperlink ref="C9" r:id="rId18"/>
+    <hyperlink ref="K9" r:id="rId19"/>
+    <hyperlink ref="C10" r:id="rId20"/>
+    <hyperlink ref="K10" r:id="rId21"/>
+    <hyperlink ref="L10" r:id="rId22"/>
+    <hyperlink ref="N10" r:id="rId23" display="mailto:avitalprod@gmail.com"/>
+    <hyperlink ref="C4" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
@@ -1375,7 +1376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
